--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_69__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_69__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,13 +5987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>98.22384643554688</c:v>
+                  <c:v>98.22383880615234</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.000985503196716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.05706787109375</c:v>
+                  <c:v>79.05706024169922</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-11.83676910400391</c:v>
@@ -6008,58 +6008,58 @@
                   <c:v>94.92732238769531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.588692426681519</c:v>
+                  <c:v>-3.588686466217041</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13.60992240905762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.06468200683594</c:v>
+                  <c:v>95.06467437744141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.83070373535156</c:v>
+                  <c:v>95.83071136474609</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.207983493804932</c:v>
+                  <c:v>7.207977771759033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.89503479003906</c:v>
+                  <c:v>93.89504241943359</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>92.58106994628906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.171273231506348</c:v>
+                  <c:v>-7.171267032623291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.817116260528564</c:v>
+                  <c:v>5.817121982574463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.69887542724609</c:v>
+                  <c:v>85.69886779785156</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.936622142791748</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.84181976318359</c:v>
+                  <c:v>55.84183120727539</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.97807502746582</c:v>
+                  <c:v>19.97806930541992</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>53.20053863525391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.038818836212158</c:v>
+                  <c:v>7.038824558258057</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>98.95484924316406</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.8980432152748108</c:v>
+                  <c:v>-0.898037314414978</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.42312622070312</c:v>
+                  <c:v>32.42311477661133</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4.541449546813965</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>54.77423477172852</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4.285645484924316</c:v>
+                  <c:v>-4.285657405853271</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>80.34190368652344</c:v>
@@ -6077,31 +6077,31 @@
                   <c:v>94.04612731933594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.46296310424805</c:v>
+                  <c:v>40.46296691894531</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.303925514221191</c:v>
+                  <c:v>6.303931713104248</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>31.97993087768555</c:v>
+                  <c:v>31.97993659973145</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.08078932762146</c:v>
+                  <c:v>3.080777645111084</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>85.10861968994141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.238095045089722</c:v>
+                  <c:v>-3.238112449645996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.01886749267578</c:v>
+                  <c:v>80.01887512207031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.61284828186035</c:v>
+                  <c:v>31.61285400390625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95.39952850341797</c:v>
+                  <c:v>95.39954376220703</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5.968904495239258</c:v>
@@ -6110,43 +6110,43 @@
                   <c:v>77.40740966796875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>98.35324096679688</c:v>
+                  <c:v>98.35321807861328</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86.34479522705078</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.45640563964844</c:v>
+                  <c:v>48.45641326904297</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55.13018798828125</c:v>
+                  <c:v>55.13019561767578</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>95.05141448974609</c:v>
+                  <c:v>95.05143737792969</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>75.59844207763672</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.5957202911377</c:v>
+                  <c:v>14.59571743011475</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>88.31153869628906</c:v>
+                  <c:v>88.31153106689453</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>100.1576385498047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21.10951232910156</c:v>
+                  <c:v>21.10950660705566</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-7.300363063812256</c:v>
+                  <c:v>-7.300374984741211</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16.08555793762207</c:v>
+                  <c:v>16.08555221557617</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.575445175170898</c:v>
+                  <c:v>5.575439453125</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>92.11756896972656</c:v>
@@ -6155,67 +6155,67 @@
                   <c:v>77.24488830566406</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.82350921630859</c:v>
+                  <c:v>22.82349014282227</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.22786521911621</c:v>
+                  <c:v>11.22788238525391</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>93.86748504638672</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.923458814620972</c:v>
+                  <c:v>-1.923464775085449</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.01827239990234</c:v>
+                  <c:v>84.01828765869141</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-1.196304082870483</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>86.12641906738281</c:v>
+                  <c:v>86.12641143798828</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>96.05362701416016</c:v>
+                  <c:v>96.05361938476562</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>47.20297622680664</c:v>
+                  <c:v>47.20298385620117</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.25892186164856</c:v>
+                  <c:v>1.258910179138184</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>95.46875762939453</c:v>
+                  <c:v>95.46875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>58.64437484741211</c:v>
+                  <c:v>58.64437103271484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.967890024185181</c:v>
+                  <c:v>1.967878222465515</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-2.334952116012573</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>93.91732788085938</c:v>
+                  <c:v>93.91733551025391</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>93.04843139648438</c:v>
+                  <c:v>93.04843902587891</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>94.86427307128906</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>93.20021057128906</c:v>
+                  <c:v>93.20022583007812</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-4.253613471984863</c:v>
+                  <c:v>-4.253625392913818</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>79.30519866943359</c:v>
+                  <c:v>79.30519104003906</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>81.55310821533203</c:v>
+                  <c:v>81.5531005859375</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>89.88156127929688</c:v>
@@ -6233,55 +6233,55 @@
                   <c:v>100.4341354370117</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-5.151282787322998</c:v>
+                  <c:v>-5.151318073272705</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>75.31821441650391</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>49.92036819458008</c:v>
+                  <c:v>49.92037200927734</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>95.52143859863281</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-4.913325309753418</c:v>
+                  <c:v>-4.91331958770752</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.386298179626465</c:v>
+                  <c:v>5.386303901672363</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>92.51946258544922</c:v>
+                  <c:v>92.51945495605469</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>84.41797637939453</c:v>
+                  <c:v>84.41796875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.683309078216553</c:v>
+                  <c:v>-7.683326721191406</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52.60266876220703</c:v>
+                  <c:v>52.60268020629883</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>96.36385345458984</c:v>
+                  <c:v>96.36383819580078</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2.094527721405029</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94.02975463867188</c:v>
+                  <c:v>94.02976226806641</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5283586382865906</c:v>
+                  <c:v>0.5283644795417786</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>86.04265594482422</c:v>
+                  <c:v>86.04266357421875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.081152439117432</c:v>
+                  <c:v>7.081140518188477</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>48.02687454223633</c:v>
+                  <c:v>48.02685165405273</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>105.2947540283203</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>98.22384643554688</v>
+        <v>98.22383880615234</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>79.05706787109375</v>
+        <v>79.05706024169922</v>
       </c>
       <c r="G4">
         <v>118</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-3.588692426681519</v>
+        <v>-3.588686466217041</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>95.06468200683594</v>
+        <v>95.06467437744141</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>95.83070373535156</v>
+        <v>95.83071136474609</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7.207983493804932</v>
+        <v>7.207977771759033</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>93.89503479003906</v>
+        <v>93.89504241943359</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-7.171273231506348</v>
+        <v>-7.171267032623291</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.817116260528564</v>
+        <v>5.817121982574463</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>85.69887542724609</v>
+        <v>85.69886779785156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>55.84181976318359</v>
+        <v>55.84183120727539</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.97807502746582</v>
+        <v>19.97806930541992</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.038818836212158</v>
+        <v>7.038824558258057</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.8980432152748108</v>
+        <v>-0.898037314414978</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>32.42312622070312</v>
+        <v>32.42311477661133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-4.285645484924316</v>
+        <v>-4.285657405853271</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>40.46296310424805</v>
+        <v>40.46296691894531</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>6.303925514221191</v>
+        <v>6.303931713104248</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>31.97993087768555</v>
+        <v>31.97993659973145</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3.08078932762146</v>
+        <v>3.080777645111084</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-3.238095045089722</v>
+        <v>-3.238112449645996</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>80.01886749267578</v>
+        <v>80.01887512207031</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>31.61284828186035</v>
+        <v>31.61285400390625</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>95.39952850341797</v>
+        <v>95.39954376220703</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>98.35324096679688</v>
+        <v>98.35321807861328</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>48.45640563964844</v>
+        <v>48.45641326904297</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>55.13018798828125</v>
+        <v>55.13019561767578</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>95.05141448974609</v>
+        <v>95.05143737792969</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>14.5957202911377</v>
+        <v>14.59571743011475</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>88.31153869628906</v>
+        <v>88.31153106689453</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>21.10951232910156</v>
+        <v>21.10950660705566</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-7.300363063812256</v>
+        <v>-7.300374984741211</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>16.08555793762207</v>
+        <v>16.08555221557617</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>5.575445175170898</v>
+        <v>5.575439453125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>22.82350921630859</v>
+        <v>22.82349014282227</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>11.22786521911621</v>
+        <v>11.22788238525391</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-1.923458814620972</v>
+        <v>-1.923464775085449</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>84.01827239990234</v>
+        <v>84.01828765869141</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>86.12641906738281</v>
+        <v>86.12641143798828</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>96.05362701416016</v>
+        <v>96.05361938476562</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>47.20297622680664</v>
+        <v>47.20298385620117</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.25892186164856</v>
+        <v>1.258910179138184</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>95.46875762939453</v>
+        <v>95.46875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>58.64437484741211</v>
+        <v>58.64437103271484</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.967890024185181</v>
+        <v>1.967878222465515</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>93.91732788085938</v>
+        <v>93.91733551025391</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>93.04843139648438</v>
+        <v>93.04843902587891</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>93.20021057128906</v>
+        <v>93.20022583007812</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-4.253613471984863</v>
+        <v>-4.253625392913818</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>79.30519866943359</v>
+        <v>79.30519104003906</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>81.55310821533203</v>
+        <v>81.5531005859375</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-5.151282787322998</v>
+        <v>-5.151318073272705</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>49.92036819458008</v>
+        <v>49.92037200927734</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-4.913325309753418</v>
+        <v>-4.91331958770752</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>5.386298179626465</v>
+        <v>5.386303901672363</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>92.51946258544922</v>
+        <v>92.51945495605469</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>84.41797637939453</v>
+        <v>84.41796875</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-7.683309078216553</v>
+        <v>-7.683326721191406</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>52.60266876220703</v>
+        <v>52.60268020629883</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>96.36385345458984</v>
+        <v>96.36383819580078</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>94.02975463867188</v>
+        <v>94.02976226806641</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.5283586382865906</v>
+        <v>0.5283644795417786</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>86.04265594482422</v>
+        <v>86.04266357421875</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>7.081152439117432</v>
+        <v>7.081140518188477</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>48.02687454223633</v>
+        <v>48.02685165405273</v>
       </c>
     </row>
     <row r="101" spans="1:6">
